--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lipc</t>
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.829942416792119</v>
+        <v>0.9004243333333332</v>
       </c>
       <c r="H2">
-        <v>0.829942416792119</v>
+        <v>2.701273</v>
       </c>
       <c r="I2">
-        <v>0.7742223560468089</v>
+        <v>0.5517399498398359</v>
       </c>
       <c r="J2">
-        <v>0.7742223560468089</v>
+        <v>0.551739949839836</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>4.314725704048069</v>
+        <v>6.073124716450776</v>
       </c>
       <c r="R2">
-        <v>4.314725704048069</v>
+        <v>54.65812244805699</v>
       </c>
       <c r="S2">
-        <v>0.006352438967582218</v>
+        <v>0.005789258717508165</v>
       </c>
       <c r="T2">
-        <v>0.006352438967582218</v>
+        <v>0.005789258717508167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.829942416792119</v>
+        <v>0.9004243333333332</v>
       </c>
       <c r="H3">
-        <v>0.829942416792119</v>
+        <v>2.701273</v>
       </c>
       <c r="I3">
-        <v>0.7742223560468089</v>
+        <v>0.5517399498398359</v>
       </c>
       <c r="J3">
-        <v>0.7742223560468089</v>
+        <v>0.551739949839836</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>151.0905000964264</v>
+        <v>164.3559683772034</v>
       </c>
       <c r="R3">
-        <v>151.0905000964264</v>
+        <v>1479.203715394831</v>
       </c>
       <c r="S3">
-        <v>0.2224459319728128</v>
+        <v>0.1566737498613879</v>
       </c>
       <c r="T3">
-        <v>0.2224459319728128</v>
+        <v>0.156673749861388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.829942416792119</v>
+        <v>0.9004243333333332</v>
       </c>
       <c r="H4">
-        <v>0.829942416792119</v>
+        <v>2.701273</v>
       </c>
       <c r="I4">
-        <v>0.7742223560468089</v>
+        <v>0.5517399498398359</v>
       </c>
       <c r="J4">
-        <v>0.7742223560468089</v>
+        <v>0.551739949839836</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>206.635328125923</v>
+        <v>224.3253382999821</v>
       </c>
       <c r="R4">
-        <v>206.635328125923</v>
+        <v>2018.928044699839</v>
       </c>
       <c r="S4">
-        <v>0.304222887038853</v>
+        <v>0.2138400709594032</v>
       </c>
       <c r="T4">
-        <v>0.304222887038853</v>
+        <v>0.2138400709594033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.829942416792119</v>
+        <v>0.9004243333333332</v>
       </c>
       <c r="H5">
-        <v>0.829942416792119</v>
+        <v>2.701273</v>
       </c>
       <c r="I5">
-        <v>0.7742223560468089</v>
+        <v>0.5517399498398359</v>
       </c>
       <c r="J5">
-        <v>0.7742223560468089</v>
+        <v>0.551739949839836</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>150.9761868406019</v>
+        <v>168.3172987909674</v>
       </c>
       <c r="R5">
-        <v>150.9761868406019</v>
+        <v>1514.855689118707</v>
       </c>
       <c r="S5">
-        <v>0.222277632055131</v>
+        <v>0.1604499223757926</v>
       </c>
       <c r="T5">
-        <v>0.222277632055131</v>
+        <v>0.1604499223757927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.829942416792119</v>
+        <v>0.9004243333333332</v>
       </c>
       <c r="H6">
-        <v>0.829942416792119</v>
+        <v>2.701273</v>
       </c>
       <c r="I6">
-        <v>0.7742223560468089</v>
+        <v>0.5517399498398359</v>
       </c>
       <c r="J6">
-        <v>0.7742223560468089</v>
+        <v>0.551739949839836</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>12.85326244457998</v>
+        <v>15.72180624727244</v>
       </c>
       <c r="R6">
-        <v>12.85326244457998</v>
+        <v>141.496256225452</v>
       </c>
       <c r="S6">
-        <v>0.01892346601242981</v>
+        <v>0.01498694792574396</v>
       </c>
       <c r="T6">
-        <v>0.01892346601242981</v>
+        <v>0.01498694792574396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.242026650375894</v>
+        <v>0.2382576666666667</v>
       </c>
       <c r="H7">
-        <v>0.242026650375894</v>
+        <v>0.7147730000000001</v>
       </c>
       <c r="I7">
-        <v>0.225777643953191</v>
+        <v>0.1459936922950287</v>
       </c>
       <c r="J7">
-        <v>0.225777643953191</v>
+        <v>0.1459936922950288</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>1.25825429368685</v>
+        <v>1.606985141061889</v>
       </c>
       <c r="R7">
-        <v>1.25825429368685</v>
+        <v>14.462866269557</v>
       </c>
       <c r="S7">
-        <v>0.001852489394365204</v>
+        <v>0.001531872499110407</v>
       </c>
       <c r="T7">
-        <v>0.001852489394365204</v>
+        <v>0.001531872499110407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.242026650375894</v>
+        <v>0.2382576666666667</v>
       </c>
       <c r="H8">
-        <v>0.242026650375894</v>
+        <v>0.7147730000000001</v>
       </c>
       <c r="I8">
-        <v>0.225777643953191</v>
+        <v>0.1459936922950287</v>
       </c>
       <c r="J8">
-        <v>0.225777643953191</v>
+        <v>0.1459936922950288</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>44.06080096893778</v>
+        <v>43.48957272548123</v>
       </c>
       <c r="R8">
-        <v>44.06080096893778</v>
+        <v>391.406154529331</v>
       </c>
       <c r="S8">
-        <v>0.06486937252010458</v>
+        <v>0.04145681173641978</v>
       </c>
       <c r="T8">
-        <v>0.06486937252010458</v>
+        <v>0.04145681173641979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.242026650375894</v>
+        <v>0.2382576666666667</v>
       </c>
       <c r="H9">
-        <v>0.242026650375894</v>
+        <v>0.7147730000000001</v>
       </c>
       <c r="I9">
-        <v>0.225777643953191</v>
+        <v>0.1459936922950287</v>
       </c>
       <c r="J9">
-        <v>0.225777643953191</v>
+        <v>0.1459936922950288</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>60.25870627138646</v>
+        <v>59.35782685892656</v>
       </c>
       <c r="R9">
-        <v>60.25870627138646</v>
+        <v>534.2204417303391</v>
       </c>
       <c r="S9">
-        <v>0.08871705413285334</v>
+        <v>0.05658336237761439</v>
       </c>
       <c r="T9">
-        <v>0.08871705413285334</v>
+        <v>0.05658336237761441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.242026650375894</v>
+        <v>0.2382576666666667</v>
       </c>
       <c r="H10">
-        <v>0.242026650375894</v>
+        <v>0.7147730000000001</v>
       </c>
       <c r="I10">
-        <v>0.225777643953191</v>
+        <v>0.1459936922950287</v>
       </c>
       <c r="J10">
-        <v>0.225777643953191</v>
+        <v>0.1459936922950288</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>44.027465096664</v>
+        <v>44.53776445724523</v>
       </c>
       <c r="R10">
-        <v>44.027465096664</v>
+        <v>400.8398801152071</v>
       </c>
       <c r="S10">
-        <v>0.0648202931327749</v>
+        <v>0.04245600958004336</v>
       </c>
       <c r="T10">
-        <v>0.0648202931327749</v>
+        <v>0.04245600958004337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2382576666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.7147730000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1459936922950287</v>
+      </c>
+      <c r="J11">
+        <v>0.1459936922950288</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N11">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O11">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P11">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q11">
+        <v>4.160084011050223</v>
+      </c>
+      <c r="R11">
+        <v>37.44075609945201</v>
+      </c>
+      <c r="S11">
+        <v>0.003965636101840795</v>
+      </c>
+      <c r="T11">
+        <v>0.003965636101840796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2552933333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.76588</v>
+      </c>
+      <c r="I12">
+        <v>0.1564323905000841</v>
+      </c>
+      <c r="J12">
+        <v>0.1564323905000841</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.744736333333333</v>
+      </c>
+      <c r="N12">
+        <v>20.234209</v>
+      </c>
+      <c r="O12">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="P12">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="Q12">
+        <v>1.721886220991111</v>
+      </c>
+      <c r="R12">
+        <v>15.49697598892</v>
+      </c>
+      <c r="S12">
+        <v>0.001641402948374768</v>
+      </c>
+      <c r="T12">
+        <v>0.001641402948374768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2552933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.76588</v>
+      </c>
+      <c r="I13">
+        <v>0.1564323905000841</v>
+      </c>
+      <c r="J13">
+        <v>0.1564323905000841</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>182.5316823333334</v>
+      </c>
+      <c r="N13">
+        <v>547.595047</v>
+      </c>
+      <c r="O13">
+        <v>0.283963033503136</v>
+      </c>
+      <c r="P13">
+        <v>0.2839630335031361</v>
+      </c>
+      <c r="Q13">
+        <v>46.59912162181778</v>
+      </c>
+      <c r="R13">
+        <v>419.39209459636</v>
+      </c>
+      <c r="S13">
+        <v>0.04442101614455102</v>
+      </c>
+      <c r="T13">
+        <v>0.04442101614455105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2552933333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.76588</v>
+      </c>
+      <c r="I14">
+        <v>0.1564323905000841</v>
+      </c>
+      <c r="J14">
+        <v>0.1564323905000841</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>249.1329143333333</v>
+      </c>
+      <c r="N14">
+        <v>747.398743</v>
+      </c>
+      <c r="O14">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="P14">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="Q14">
+        <v>63.60197214320444</v>
+      </c>
+      <c r="R14">
+        <v>572.41774928884</v>
+      </c>
+      <c r="S14">
+        <v>0.06062913061596801</v>
+      </c>
+      <c r="T14">
+        <v>0.06062913061596803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.242026650375894</v>
-      </c>
-      <c r="H11">
-        <v>0.242026650375894</v>
-      </c>
-      <c r="I11">
-        <v>0.225777643953191</v>
-      </c>
-      <c r="J11">
-        <v>0.225777643953191</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="N11">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="O11">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="P11">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="Q11">
-        <v>3.748250472470016</v>
-      </c>
-      <c r="R11">
-        <v>3.748250472470016</v>
-      </c>
-      <c r="S11">
-        <v>0.005518434773092987</v>
-      </c>
-      <c r="T11">
-        <v>0.005518434773092987</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2552933333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.76588</v>
+      </c>
+      <c r="I15">
+        <v>0.1564323905000841</v>
+      </c>
+      <c r="J15">
+        <v>0.1564323905000841</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>186.9310863333334</v>
+      </c>
+      <c r="N15">
+        <v>560.793259</v>
+      </c>
+      <c r="O15">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="P15">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="Q15">
+        <v>47.72226013365778</v>
+      </c>
+      <c r="R15">
+        <v>429.50034120292</v>
+      </c>
+      <c r="S15">
+        <v>0.04549165765517668</v>
+      </c>
+      <c r="T15">
+        <v>0.04549165765517669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2552933333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.76588</v>
+      </c>
+      <c r="I16">
+        <v>0.1564323905000841</v>
+      </c>
+      <c r="J16">
+        <v>0.1564323905000841</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N16">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O16">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P16">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q16">
+        <v>4.457534269457778</v>
+      </c>
+      <c r="R16">
+        <v>40.11780842512</v>
+      </c>
+      <c r="S16">
+        <v>0.00424918313601357</v>
+      </c>
+      <c r="T16">
+        <v>0.004249183136013571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.109912</v>
+      </c>
+      <c r="H17">
+        <v>0.329736</v>
+      </c>
+      <c r="I17">
+        <v>0.06734918096037985</v>
+      </c>
+      <c r="J17">
+        <v>0.06734918096037987</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.744736333333333</v>
+      </c>
+      <c r="N17">
+        <v>20.234209</v>
+      </c>
+      <c r="O17">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="P17">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="Q17">
+        <v>0.7413274598693333</v>
+      </c>
+      <c r="R17">
+        <v>6.671947138824001</v>
+      </c>
+      <c r="S17">
+        <v>0.0007066768195870143</v>
+      </c>
+      <c r="T17">
+        <v>0.0007066768195870145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.109912</v>
+      </c>
+      <c r="H18">
+        <v>0.329736</v>
+      </c>
+      <c r="I18">
+        <v>0.06734918096037985</v>
+      </c>
+      <c r="J18">
+        <v>0.06734918096037987</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>182.5316823333334</v>
+      </c>
+      <c r="N18">
+        <v>547.595047</v>
+      </c>
+      <c r="O18">
+        <v>0.283963033503136</v>
+      </c>
+      <c r="P18">
+        <v>0.2839630335031361</v>
+      </c>
+      <c r="Q18">
+        <v>20.06242226862134</v>
+      </c>
+      <c r="R18">
+        <v>180.561800417592</v>
+      </c>
+      <c r="S18">
+        <v>0.01912467772946111</v>
+      </c>
+      <c r="T18">
+        <v>0.01912467772946112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.109912</v>
+      </c>
+      <c r="H19">
+        <v>0.329736</v>
+      </c>
+      <c r="I19">
+        <v>0.06734918096037985</v>
+      </c>
+      <c r="J19">
+        <v>0.06734918096037987</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>249.1329143333333</v>
+      </c>
+      <c r="N19">
+        <v>747.398743</v>
+      </c>
+      <c r="O19">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="P19">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="Q19">
+        <v>27.38269688020534</v>
+      </c>
+      <c r="R19">
+        <v>246.444271921848</v>
+      </c>
+      <c r="S19">
+        <v>0.02610279288241869</v>
+      </c>
+      <c r="T19">
+        <v>0.0261027928824187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.109912</v>
+      </c>
+      <c r="H20">
+        <v>0.329736</v>
+      </c>
+      <c r="I20">
+        <v>0.06734918096037985</v>
+      </c>
+      <c r="J20">
+        <v>0.06734918096037987</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>186.9310863333334</v>
+      </c>
+      <c r="N20">
+        <v>560.793259</v>
+      </c>
+      <c r="O20">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="P20">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="Q20">
+        <v>20.54596956106934</v>
+      </c>
+      <c r="R20">
+        <v>184.913726049624</v>
+      </c>
+      <c r="S20">
+        <v>0.01958562337257447</v>
+      </c>
+      <c r="T20">
+        <v>0.01958562337257448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.109912</v>
+      </c>
+      <c r="H21">
+        <v>0.329736</v>
+      </c>
+      <c r="I21">
+        <v>0.06734918096037985</v>
+      </c>
+      <c r="J21">
+        <v>0.06734918096037987</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N21">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q21">
+        <v>1.919112027829334</v>
+      </c>
+      <c r="R21">
+        <v>17.272008250464</v>
+      </c>
+      <c r="S21">
+        <v>0.001829410156338553</v>
+      </c>
+      <c r="T21">
+        <v>0.001829410156338553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.128085</v>
+      </c>
+      <c r="H22">
+        <v>0.384255</v>
+      </c>
+      <c r="I22">
+        <v>0.07848478640467148</v>
+      </c>
+      <c r="J22">
+        <v>0.07848478640467149</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.744736333333333</v>
+      </c>
+      <c r="N22">
+        <v>20.234209</v>
+      </c>
+      <c r="O22">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="P22">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="Q22">
+        <v>0.8638995532549998</v>
+      </c>
+      <c r="R22">
+        <v>7.775095979294999</v>
+      </c>
+      <c r="S22">
+        <v>0.0008235197288449187</v>
+      </c>
+      <c r="T22">
+        <v>0.000823519728844919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.128085</v>
+      </c>
+      <c r="H23">
+        <v>0.384255</v>
+      </c>
+      <c r="I23">
+        <v>0.07848478640467148</v>
+      </c>
+      <c r="J23">
+        <v>0.07848478640467149</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>182.5316823333334</v>
+      </c>
+      <c r="N23">
+        <v>547.595047</v>
+      </c>
+      <c r="O23">
+        <v>0.283963033503136</v>
+      </c>
+      <c r="P23">
+        <v>0.2839630335031361</v>
+      </c>
+      <c r="Q23">
+        <v>23.379570531665</v>
+      </c>
+      <c r="R23">
+        <v>210.416134784985</v>
+      </c>
+      <c r="S23">
+        <v>0.0222867780313162</v>
+      </c>
+      <c r="T23">
+        <v>0.02228677803131621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.128085</v>
+      </c>
+      <c r="H24">
+        <v>0.384255</v>
+      </c>
+      <c r="I24">
+        <v>0.07848478640467148</v>
+      </c>
+      <c r="J24">
+        <v>0.07848478640467149</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>249.1329143333333</v>
+      </c>
+      <c r="N24">
+        <v>747.398743</v>
+      </c>
+      <c r="O24">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="P24">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="Q24">
+        <v>31.91018933238499</v>
+      </c>
+      <c r="R24">
+        <v>287.191703991465</v>
+      </c>
+      <c r="S24">
+        <v>0.03041866426181488</v>
+      </c>
+      <c r="T24">
+        <v>0.03041866426181489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.128085</v>
+      </c>
+      <c r="H25">
+        <v>0.384255</v>
+      </c>
+      <c r="I25">
+        <v>0.07848478640467148</v>
+      </c>
+      <c r="J25">
+        <v>0.07848478640467149</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>186.9310863333334</v>
+      </c>
+      <c r="N25">
+        <v>560.793259</v>
+      </c>
+      <c r="O25">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="P25">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="Q25">
+        <v>23.943068193005</v>
+      </c>
+      <c r="R25">
+        <v>215.487613737045</v>
+      </c>
+      <c r="S25">
+        <v>0.02282393705579192</v>
+      </c>
+      <c r="T25">
+        <v>0.02282393705579192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.128085</v>
+      </c>
+      <c r="H26">
+        <v>0.384255</v>
+      </c>
+      <c r="I26">
+        <v>0.07848478640467148</v>
+      </c>
+      <c r="J26">
+        <v>0.07848478640467149</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N26">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O26">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P26">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q26">
+        <v>2.23642062818</v>
+      </c>
+      <c r="R26">
+        <v>20.12778565362</v>
+      </c>
+      <c r="S26">
+        <v>0.002131887326903554</v>
+      </c>
+      <c r="T26">
+        <v>0.002131887326903555</v>
       </c>
     </row>
   </sheetData>
